--- a/悦动力培训平台/2019培训业务需求规划.xlsx
+++ b/悦动力培训平台/2019培训业务需求规划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\trainBusiness-ydl\悦动力培训平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="193">
   <si>
     <t>需求分类</t>
   </si>
@@ -986,6 +986,64 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -995,76 +1053,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2454,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="93" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>90</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="H41" s="12">
         <v>1</v>
       </c>
-      <c r="I41" s="93">
+      <c r="I41" s="67">
         <v>3.4</v>
       </c>
     </row>
@@ -2602,9 +2602,7 @@
       <c r="I45" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J45" s="65" t="s">
-        <v>191</v>
-      </c>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
@@ -3498,10 +3496,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="76" t="s">
@@ -3522,8 +3520,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="16" t="s">
@@ -3540,10 +3538,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
@@ -3558,9 +3556,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="82"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3578,8 +3576,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="77"/>
       <c r="D6" s="76" t="s">
         <v>17</v>
@@ -3596,10 +3594,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="78"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
@@ -3614,9 +3612,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="22" t="s">
         <v>20</v>
       </c>
@@ -3634,8 +3632,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="76" t="s">
         <v>22</v>
       </c>
@@ -3652,8 +3650,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="77"/>
       <c r="D10" s="17" t="s">
         <v>24</v>
@@ -3668,8 +3666,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="77"/>
       <c r="D11" s="17" t="s">
         <v>25</v>
@@ -3684,9 +3682,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="19" t="s">
         <v>26</v>
       </c>
@@ -3704,8 +3702,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="77"/>
       <c r="D13" s="17" t="s">
         <v>28</v>
@@ -3722,8 +3720,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="77"/>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -3740,9 +3738,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="22" t="s">
         <v>32</v>
       </c>
@@ -3760,8 +3758,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="24" t="s">
         <v>34</v>
       </c>
@@ -3778,9 +3776,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -3800,9 +3798,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="19" t="s">
         <v>38</v>
       </c>
@@ -3820,8 +3818,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3842,11 +3840,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="81" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3858,7 +3856,7 @@
       <c r="F20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="87">
         <v>3</v>
       </c>
       <c r="H20" s="12">
@@ -3866,9 +3864,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="17" t="s">
         <v>46</v>
       </c>
@@ -3878,15 +3876,15 @@
       <c r="F21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="17" t="s">
         <v>48</v>
       </c>
@@ -3896,15 +3894,15 @@
       <c r="F22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="17" t="s">
         <v>49</v>
       </c>
@@ -3914,15 +3912,15 @@
       <c r="F23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="17" t="s">
         <v>51</v>
       </c>
@@ -3932,15 +3930,15 @@
       <c r="F24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17" t="s">
         <v>53</v>
       </c>
@@ -3950,14 +3948,14 @@
       <c r="F25" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="84"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="11" t="s">
         <v>55</v>
       </c>
@@ -3978,8 +3976,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="84" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -4002,7 +4000,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="77"/>
       <c r="C28" s="76" t="s">
         <v>61</v>
@@ -4019,7 +4017,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="77"/>
       <c r="C29" s="77"/>
       <c r="D29" s="17" t="s">
@@ -4036,9 +4034,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="17" t="s">
         <v>65</v>
       </c>
@@ -4056,11 +4054,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="79" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -4080,9 +4078,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="78"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="19" t="s">
         <v>71</v>
       </c>
@@ -4100,8 +4098,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="24" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4117,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="85"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="24" t="s">
         <v>75</v>
       </c>
@@ -4138,8 +4136,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="85" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="81" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="76" t="s">
@@ -4157,9 +4155,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="79"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="17" t="s">
         <v>80</v>
       </c>
@@ -4175,8 +4173,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="76" t="s">
         <v>81</v>
       </c>
@@ -4194,9 +4192,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="17" t="s">
         <v>84</v>
       </c>
@@ -4211,8 +4209,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="24" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4231,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
-      <c r="B40" s="85"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="24" t="s">
         <v>88</v>
       </c>
@@ -4255,10 +4253,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -4278,9 +4276,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="72" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="71" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -4297,9 +4295,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="71"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="13" t="s">
         <v>98</v>
       </c>
@@ -4314,9 +4312,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="72" t="s">
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="71" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -4333,9 +4331,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="13" t="s">
         <v>100</v>
       </c>
@@ -4350,9 +4348,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="80"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="29" t="s">
         <v>102</v>
       </c>
@@ -4367,8 +4365,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="28" t="s">
         <v>103</v>
       </c>
@@ -4386,8 +4384,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="11" t="s">
         <v>105</v>
       </c>
@@ -4408,8 +4406,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="71"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="12" t="s">
         <v>107</v>
       </c>
@@ -4427,8 +4425,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="73"/>
-      <c r="B50" s="72" t="s">
+      <c r="A50" s="72"/>
+      <c r="B50" s="71" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -4448,8 +4446,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="12" t="s">
         <v>86</v>
       </c>
@@ -4470,8 +4468,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="12" t="s">
         <v>88</v>
       </c>
@@ -4572,7 +4570,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="77"/>
-      <c r="B57" s="79"/>
+      <c r="B57" s="78"/>
       <c r="C57" s="24" t="s">
         <v>107</v>
       </c>
@@ -4631,8 +4629,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
       <c r="C60" s="24" t="s">
         <v>88</v>
       </c>
@@ -4653,13 +4651,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="79" t="s">
         <v>120</v>
       </c>
       <c r="D61" s="19" t="s">
@@ -4679,9 +4677,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="73"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="13" t="s">
         <v>123</v>
       </c>
@@ -4696,8 +4694,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="73"/>
-      <c r="B63" s="92" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="85" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -4714,8 +4712,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="73"/>
-      <c r="B64" s="73"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="12" t="s">
         <v>128</v>
       </c>
@@ -4730,9 +4728,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="72" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="71" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -4749,9 +4747,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
       <c r="D66" s="13" t="s">
         <v>132</v>
       </c>
@@ -4763,9 +4761,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="73"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
       <c r="D67" s="13" t="s">
         <v>133</v>
       </c>
@@ -4777,11 +4775,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
-      <c r="B68" s="72" t="s">
+      <c r="A68" s="72"/>
+      <c r="B68" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="71" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -4795,9 +4793,9 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
       <c r="D69" s="13" t="s">
         <v>36</v>
       </c>
@@ -4815,9 +4813,9 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
       <c r="D70" s="13" t="s">
         <v>138</v>
       </c>
@@ -4832,9 +4830,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="13" t="s">
         <v>140</v>
       </c>
@@ -4849,9 +4847,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="29" t="s">
         <v>32</v>
       </c>
@@ -4869,9 +4867,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
       <c r="D73" s="30" t="s">
         <v>38</v>
       </c>
@@ -4889,7 +4887,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
+      <c r="A74" s="75"/>
       <c r="B74" s="12" t="s">
         <v>144</v>
       </c>
@@ -4909,6 +4907,22 @@
   </sheetData>
   <autoFilter ref="A1:H74"/>
   <mergeCells count="32">
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="A2:A40"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A53:A60"/>
@@ -4925,22 +4939,6 @@
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B67"/>
     <mergeCell ref="B68:B73"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C28:C30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/悦动力培训平台/2019培训业务需求规划.xlsx
+++ b/悦动力培训平台/2019培训业务需求规划.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\trainBusiness-ydl\悦动力培训平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807512E-AD3E-4144-9D8D-833BE3EEC7FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="194">
   <si>
     <t>需求分类</t>
   </si>
@@ -652,12 +653,16 @@
     <t>v6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +704,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -828,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +858,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -907,18 +919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,9 +929,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -938,8 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,8 +982,63 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,42 +1048,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1041,30 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1083,7 +1079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1158,6 +1154,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1193,6 +1206,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1368,11 +1398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,449 +1417,449 @@
     <col min="8" max="8" width="33.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="55" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:9" s="47" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="46" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="24">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24" t="s">
+      <c r="F3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24" t="s">
+      <c r="F8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="24">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="F11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="F12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="E13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24">
-        <v>0</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="F15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" t="s">
@@ -1837,26 +1867,26 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" t="s">
@@ -1864,26 +1894,26 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="E19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" t="s">
@@ -1891,26 +1921,26 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="12">
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" t="s">
@@ -1918,26 +1948,26 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="12">
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" t="s">
@@ -1945,26 +1975,26 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="12">
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="11">
         <v>0</v>
       </c>
       <c r="I22" t="s">
@@ -1972,26 +2002,26 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="12">
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" t="s">
@@ -1999,26 +2029,26 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="12">
+      <c r="D24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="11">
         <v>0</v>
       </c>
       <c r="I24" t="s">
@@ -2026,155 +2056,155 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="D25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="24">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24" t="s">
+      <c r="F25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="23">
+        <v>0</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="24">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="F26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24" t="s">
+      <c r="F27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="23">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="24" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="24">
-        <v>0</v>
-      </c>
-      <c r="I28" s="24" t="s">
+      <c r="F28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="23">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="24">
-        <v>0</v>
-      </c>
-      <c r="I29" s="24" t="s">
+      <c r="D29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="23">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="36" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36">
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" t="s">
@@ -2182,24 +2212,24 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="36" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36">
+      <c r="F31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" t="s">
@@ -2207,24 +2237,24 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" t="s">
@@ -2232,24 +2262,24 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" t="s">
@@ -2257,24 +2287,24 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" t="s">
@@ -2282,26 +2312,26 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36">
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" t="s">
@@ -2309,26 +2339,26 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36">
+      <c r="F36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
         <v>0</v>
       </c>
       <c r="I36" t="s">
@@ -2336,819 +2366,822 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="57">
+      <c r="F37" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="49">
         <v>2</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="51">
         <v>1</v>
       </c>
-      <c r="I37" s="59">
+      <c r="I37" s="51">
         <v>3.4</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="63">
+      <c r="F38" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="55">
         <v>1</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="56">
         <v>1</v>
       </c>
-      <c r="I38" s="64">
+      <c r="I38" s="56">
         <v>3.4</v>
       </c>
-      <c r="J38" s="65" t="s">
+      <c r="J38" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="22">
+      <c r="F39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="21">
         <v>1</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>1</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <v>3.4</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="22">
+      <c r="F40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="21">
         <v>1</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>1</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <v>3.4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="12">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="11">
         <v>1</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>1</v>
       </c>
-      <c r="I41" s="67">
+      <c r="I41">
         <v>3.4</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="38">
+      <c r="F42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="9">
         <v>1</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="9">
         <v>1</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="84">
         <v>3.4</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="F43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="16">
         <v>2</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="23">
         <v>2</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J43" s="65" t="s">
+      <c r="J43" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="17">
+      <c r="F44" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="16">
         <v>2</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="23">
         <v>2</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J44" s="65" t="s">
+      <c r="J44" s="57" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="F45" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="16">
         <v>2</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="23">
         <v>2</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J45" s="65"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="24">
+      <c r="F46" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="23">
         <v>2</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <v>2</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J46" s="66" t="s">
+      <c r="J46" s="57" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="24">
+      <c r="F47" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="23">
         <v>2</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="23">
         <v>2</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J47" s="66" t="s">
+      <c r="J47" s="57" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="52">
+      <c r="F48" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="44">
         <v>2</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="44">
         <v>2</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="44">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52">
+      <c r="F49" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44">
         <v>2</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="44">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="49" t="s">
+      <c r="J49" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="F50" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="52">
+      <c r="F50" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="44">
         <v>2</v>
       </c>
-      <c r="H50" s="52">
+      <c r="H50" s="44">
         <v>2</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="44">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="17">
+      <c r="F51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="16">
         <v>2</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="23">
         <v>3</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+    <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="F52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="16">
         <v>3</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="23">
         <v>3</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="17">
+      <c r="F53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="16">
         <v>3</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="23">
         <v>3</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="17">
+      <c r="F54" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="16">
         <v>3</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="23">
         <v>3</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="17">
+      <c r="E55" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="16">
         <v>3</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="23">
         <v>3</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="17">
+      <c r="F56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="16">
         <v>3</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="23">
         <v>3</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="17">
+      <c r="F57" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="16">
         <v>3</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="23">
         <v>3</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="17">
+      <c r="F58" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="16">
         <v>3</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="23">
         <v>3</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="24">
+      <c r="F59" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="23">
         <v>2</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="23">
         <v>3</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
+    <row r="60" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="24">
+      <c r="F60" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="23">
         <v>2</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="23">
         <v>3</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
+    <row r="61" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="24">
+      <c r="F61" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="23">
         <v>4</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="23">
         <v>3</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="24" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="12">
+      <c r="F62" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="11">
         <v>3</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="23">
         <v>3</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+    <row r="63" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="36">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="11">
         <v>4</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="11">
         <v>3</v>
       </c>
       <c r="I63">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="36">
+      <c r="F64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="11">
         <v>2</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="11">
         <v>3</v>
       </c>
       <c r="I64">
@@ -3156,140 +3189,140 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="17">
+      <c r="F65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="16">
         <v>4</v>
       </c>
-      <c r="H65" s="24">
+      <c r="H65" s="23">
         <v>4</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I65" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="17" t="s">
+      <c r="C66" s="31"/>
+      <c r="D66" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="24">
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="23">
         <v>4</v>
       </c>
-      <c r="H66" s="24">
+      <c r="H66" s="23">
         <v>4</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="24" t="s">
+      <c r="D67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="24">
+      <c r="F67" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="23">
         <v>4</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="23">
         <v>4</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="24" t="s">
+      <c r="D68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="24">
+      <c r="F68" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="23">
         <v>4</v>
       </c>
-      <c r="H68" s="24">
+      <c r="H68" s="23">
         <v>4</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I68" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="12">
+      <c r="F69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="11">
         <v>2</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>4</v>
       </c>
       <c r="I69">
@@ -3297,28 +3330,28 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="12">
+      <c r="F70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="11">
         <v>4</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>4</v>
       </c>
       <c r="I70">
@@ -3326,28 +3359,28 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="D71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="12">
+      <c r="F71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="11">
         <v>4</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>4</v>
       </c>
       <c r="I71">
@@ -3355,82 +3388,82 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="24" t="s">
+      <c r="D72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="12">
+      <c r="F72" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="11">
         <v>4</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="23">
         <v>4</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="24" t="s">
+      <c r="D73" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="12">
+      <c r="F73" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="11">
         <v>4</v>
       </c>
-      <c r="H73" s="24">
+      <c r="H73" s="23">
         <v>4</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="23">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="36" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="36">
+      <c r="F74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="11">
         <v>4</v>
       </c>
-      <c r="H74" s="36">
+      <c r="H74" s="11">
         <v>4</v>
       </c>
       <c r="I74">
@@ -3438,7 +3471,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H74">
+  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:H74">
       <sortCondition ref="H1:H74"/>
     </sortState>
@@ -3450,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3459,1454 +3492,1470 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="9.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="59" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19" style="12" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="9.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="59" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="12">
+      <c r="F2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="16">
         <v>4</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="18" t="s">
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="20" t="s">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="22">
+      <c r="F5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="76" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="18" t="s">
+      <c r="F6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="F7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="18">
         <v>2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="22" t="s">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12">
+      <c r="E9" s="16"/>
+      <c r="F9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="17" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="12">
+      <c r="E10" s="16"/>
+      <c r="F10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="19" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="18">
         <v>2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="12">
+      <c r="F13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="22" t="s">
+      <c r="F14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="22">
+      <c r="F15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="21">
         <v>1</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18">
         <v>2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="19" t="s">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="18">
         <v>2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="17">
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="16">
         <v>3</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="81" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="87">
+      <c r="F20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="58">
         <v>3</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="12">
+      <c r="F21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="12">
+      <c r="E22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="17" t="s">
+      <c r="A23" s="77"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="12">
+      <c r="F23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="12">
+      <c r="F24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="17" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="12">
+      <c r="F25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="11" t="s">
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="8">
         <v>2</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="84" t="s">
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78"/>
+      <c r="B27" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="8">
         <v>2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="76" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="12">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="17" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="F29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="17" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="12">
+      <c r="F30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11">
         <v>4</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="82" t="s">
+    <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="8">
         <v>2</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="19" t="s">
+    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="8">
         <v>2</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="12">
+      <c r="F33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="68"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="12">
+      <c r="E34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="81" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="12">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="17" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="12">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="11">
         <v>4</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="68"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="76" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="12">
+      <c r="F37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="17" t="s">
+      <c r="A38" s="77"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="12">
+      <c r="F38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="24" t="s">
+      <c r="A39" s="77"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="12">
+      <c r="F39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11">
         <v>4</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="77"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="24" t="s">
+      <c r="D40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="12">
+      <c r="F40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11">
         <v>4</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="12">
+      <c r="F41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="71" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="12">
+      <c r="F42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="13" t="s">
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="12">
+      <c r="E43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="71" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="12">
+      <c r="E44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="13" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="29" t="s">
+      <c r="F45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="10">
+      <c r="F46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="9">
         <v>1</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="11" t="s">
+      <c r="F47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="10">
         <v>2</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="12">
+      <c r="F49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="72"/>
-      <c r="B50" s="71" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="12">
+      <c r="D50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="12" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="12">
+      <c r="F51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="11">
         <v>4</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="12" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="12">
+      <c r="F52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="11">
         <v>4</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="D53" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="12">
+      <c r="F53" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="77"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="24" t="s">
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="24" t="s">
+      <c r="D54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="12">
+      <c r="F54" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="24" t="s">
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="24" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="12">
+      <c r="F55" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="11">
         <v>3</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="24" t="s">
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="12">
+      <c r="F56" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="24" t="s">
+      <c r="A57" s="68"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="24" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="12">
+      <c r="F57" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="77"/>
-      <c r="B58" s="76" t="s">
+      <c r="A58" s="68"/>
+      <c r="B58" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="12">
+      <c r="D58" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="24" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="24" t="s">
+      <c r="D59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="12">
+      <c r="F59" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="11">
         <v>4</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="24" t="s">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="24" t="s">
+      <c r="D60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="12">
+      <c r="F60" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="11">
         <v>4</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="79" t="s">
+    <row r="61" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="F61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="10">
         <v>2</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="13" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="12">
+      <c r="F62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="72"/>
-      <c r="B63" s="85" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="12">
+      <c r="F63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="12">
+      <c r="F64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="71" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="12">
+      <c r="F65" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="11">
         <v>4</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="13" t="s">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="12">
+      <c r="F66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="72"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="13" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="12">
+      <c r="F67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="72"/>
-      <c r="B68" s="71" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="12">
+      <c r="F68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="72"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="13" t="s">
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="12">
+      <c r="F69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="11">
         <v>2</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="13" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="12">
+      <c r="F70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="13" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="29" t="s">
+      <c r="F71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="10">
+      <c r="F72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="9">
         <v>1</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="80"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="30" t="s">
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="9">
+      <c r="F73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="8">
         <v>2</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="75"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="62"/>
+      <c r="B74" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="12">
+      <c r="F74" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="11">
         <v>4</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H74"/>
+  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="32">
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B73"/>
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="C65:C67"/>
@@ -4923,22 +4972,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A61:A74"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B73"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4946,7 +4979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5103,13 +5136,13 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">

--- a/悦动力培训平台/2019培训业务需求规划.xlsx
+++ b/悦动力培训平台/2019培训业务需求规划.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\trainBusiness-ydl\悦动力培训平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807512E-AD3E-4144-9D8D-833BE3EEC7FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="194">
   <si>
     <t>需求分类</t>
   </si>
@@ -661,7 +660,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -982,6 +981,64 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -991,76 +1048,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1079,7 +1078,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1154,23 +1153,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1206,23 +1188,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1398,11 +1363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2536,7 +2501,7 @@
       <c r="H42" s="9">
         <v>1</v>
       </c>
-      <c r="I42" s="84">
+      <c r="I42" s="58">
         <v>3.4</v>
       </c>
     </row>
@@ -2813,6 +2778,9 @@
       </c>
       <c r="I51" s="23">
         <v>5.0999999999999996</v>
+      </c>
+      <c r="J51" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3471,7 +3439,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:H74">
     <sortState ref="A2:H74">
       <sortCondition ref="H1:H74"/>
     </sortState>
@@ -3483,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3529,10 +3497,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="72" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="67" t="s">
@@ -3553,8 +3521,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="15" t="s">
@@ -3571,10 +3539,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
@@ -3589,9 +3557,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
@@ -3609,8 +3577,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="68"/>
       <c r="D6" s="67" t="s">
         <v>17</v>
@@ -3627,10 +3595,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="69"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
@@ -3645,9 +3613,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
@@ -3665,8 +3633,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="67" t="s">
         <v>22</v>
       </c>
@@ -3683,8 +3651,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="68"/>
       <c r="D10" s="16" t="s">
         <v>24</v>
@@ -3699,8 +3667,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="68"/>
       <c r="D11" s="16" t="s">
         <v>25</v>
@@ -3715,9 +3683,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="72"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
@@ -3735,8 +3703,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="68"/>
       <c r="D13" s="16" t="s">
         <v>28</v>
@@ -3753,8 +3721,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="68"/>
       <c r="D14" s="16" t="s">
         <v>30</v>
@@ -3771,9 +3739,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="21" t="s">
         <v>32</v>
       </c>
@@ -3791,8 +3759,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
@@ -3809,9 +3777,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -3831,9 +3799,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
@@ -3851,8 +3819,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="16" t="s">
         <v>40</v>
       </c>
@@ -3873,11 +3841,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="72" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -3889,7 +3857,7 @@
       <c r="F20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="78">
         <v>3</v>
       </c>
       <c r="H20" s="11">
@@ -3897,9 +3865,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="16" t="s">
         <v>46</v>
       </c>
@@ -3909,15 +3877,15 @@
       <c r="F21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="16" t="s">
         <v>48</v>
       </c>
@@ -3927,15 +3895,15 @@
       <c r="F22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
@@ -3945,15 +3913,15 @@
       <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="59"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="16" t="s">
         <v>51</v>
       </c>
@@ -3963,15 +3931,15 @@
       <c r="F24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="16" t="s">
         <v>53</v>
       </c>
@@ -3981,14 +3949,14 @@
       <c r="F25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="75"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
@@ -4009,8 +3977,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
-      <c r="B27" s="82" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="75" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -4033,7 +4001,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="68"/>
       <c r="C28" s="67" t="s">
         <v>61</v>
@@ -4050,7 +4018,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="D29" s="16" t="s">
@@ -4067,9 +4035,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -4087,11 +4055,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="70" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -4111,9 +4079,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="69"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="18" t="s">
         <v>71</v>
       </c>
@@ -4131,8 +4099,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="23" t="s">
         <v>73</v>
       </c>
@@ -4150,8 +4118,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="23" t="s">
         <v>75</v>
       </c>
@@ -4169,8 +4137,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="76" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="72" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="67" t="s">
@@ -4188,9 +4156,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="70"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="16" t="s">
         <v>80</v>
       </c>
@@ -4206,8 +4174,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="67" t="s">
         <v>81</v>
       </c>
@@ -4225,9 +4193,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="70"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="16" t="s">
         <v>84</v>
       </c>
@@ -4242,8 +4210,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="77"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="23" t="s">
         <v>86</v>
       </c>
@@ -4264,8 +4232,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="23" t="s">
         <v>88</v>
       </c>
@@ -4286,10 +4254,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="62" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="25" t="s">
@@ -4309,9 +4277,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="63" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="62" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -4328,9 +4296,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="12" t="s">
         <v>98</v>
       </c>
@@ -4345,9 +4313,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="63" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="12" t="s">
@@ -4364,9 +4332,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="12" t="s">
         <v>100</v>
       </c>
@@ -4381,9 +4349,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="71"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="28" t="s">
         <v>102</v>
       </c>
@@ -4398,8 +4366,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
       <c r="C47" s="27" t="s">
         <v>103</v>
       </c>
@@ -4417,8 +4385,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="10" t="s">
         <v>105</v>
       </c>
@@ -4439,8 +4407,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="64"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="11" t="s">
         <v>107</v>
       </c>
@@ -4458,8 +4426,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="64"/>
-      <c r="B50" s="63" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="62" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -4479,8 +4447,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
       <c r="C51" s="11" t="s">
         <v>86</v>
       </c>
@@ -4501,8 +4469,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="11" t="s">
         <v>88</v>
       </c>
@@ -4603,7 +4571,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="68"/>
-      <c r="B57" s="70"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="23" t="s">
         <v>107</v>
       </c>
@@ -4662,8 +4630,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="23" t="s">
         <v>88</v>
       </c>
@@ -4684,13 +4652,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="70" t="s">
         <v>120</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -4710,9 +4678,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="12" t="s">
         <v>123</v>
       </c>
@@ -4727,8 +4695,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="64"/>
-      <c r="B63" s="83" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="76" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -4745,8 +4713,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="11" t="s">
         <v>128</v>
       </c>
@@ -4761,9 +4729,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="63" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="62" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="12" t="s">
@@ -4780,9 +4748,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="12" t="s">
         <v>132</v>
       </c>
@@ -4794,9 +4762,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="12" t="s">
         <v>133</v>
       </c>
@@ -4808,11 +4776,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="64"/>
-      <c r="B68" s="63" t="s">
+      <c r="A68" s="63"/>
+      <c r="B68" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="62" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -4826,9 +4794,9 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="12" t="s">
         <v>36</v>
       </c>
@@ -4846,9 +4814,9 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="12" t="s">
         <v>138</v>
       </c>
@@ -4863,9 +4831,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="12" t="s">
         <v>140</v>
       </c>
@@ -4880,9 +4848,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="28" t="s">
         <v>32</v>
       </c>
@@ -4900,9 +4868,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="80"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="29" t="s">
         <v>38</v>
       </c>
@@ -4920,7 +4888,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="62"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="11" t="s">
         <v>144</v>
       </c>
@@ -4938,8 +4906,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H74"/>
   <mergeCells count="32">
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="A2:A40"/>
     <mergeCell ref="A41:A52"/>
     <mergeCell ref="A53:A60"/>
@@ -4956,22 +4940,6 @@
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B67"/>
     <mergeCell ref="B68:B73"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C28:C30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4979,7 +4947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/悦动力培训平台/2019培训业务需求规划.xlsx
+++ b/悦动力培训平台/2019培训业务需求规划.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="202">
   <si>
     <t>需求分类</t>
   </si>
@@ -654,6 +654,90 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,6 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,14 +1742,14 @@
       <c r="D11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="23">
+      <c r="H11" s="16">
         <v>0</v>
       </c>
       <c r="I11" s="23" t="s">
@@ -1817,14 +1902,14 @@
       <c r="D17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>0</v>
       </c>
       <c r="I17" t="s">
@@ -2358,6 +2443,9 @@
       <c r="I37" s="51">
         <v>3.4</v>
       </c>
+      <c r="J37" s="57" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
@@ -2419,6 +2507,9 @@
       <c r="I39" s="23">
         <v>3.4</v>
       </c>
+      <c r="J39" s="57" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
@@ -2448,6 +2539,9 @@
       <c r="I40" s="23">
         <v>3.4</v>
       </c>
+      <c r="J40" s="59" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
@@ -2475,6 +2569,9 @@
       <c r="I41">
         <v>3.4</v>
       </c>
+      <c r="J41" s="57" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
@@ -2504,6 +2601,9 @@
       <c r="I42" s="58">
         <v>3.4</v>
       </c>
+      <c r="J42" s="57" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
@@ -2597,7 +2697,9 @@
       <c r="I45" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J45" s="57"/>
+      <c r="J45" s="59" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
@@ -2750,6 +2852,9 @@
       <c r="I50" s="44">
         <v>5.0999999999999996</v>
       </c>
+      <c r="J50" s="57" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
@@ -2811,6 +2916,9 @@
       <c r="I52" s="23">
         <v>5.0999999999999996</v>
       </c>
+      <c r="J52" s="57" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
@@ -3072,6 +3180,9 @@
       <c r="I61" s="23">
         <v>5.0999999999999996</v>
       </c>
+      <c r="J61" s="57" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
@@ -3126,6 +3237,9 @@
       <c r="I63">
         <v>5.0999999999999996</v>
       </c>
+      <c r="J63" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
@@ -3156,7 +3270,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>6</v>
       </c>
@@ -3185,7 +3299,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3324,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>6</v>
       </c>
@@ -3238,8 +3352,11 @@
       <c r="I67" s="23">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J67" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>6</v>
       </c>
@@ -3268,7 +3385,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>90</v>
       </c>
@@ -3297,7 +3414,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>90</v>
       </c>
@@ -3325,8 +3442,11 @@
       <c r="I70">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J70" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>90</v>
       </c>
@@ -3355,7 +3475,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>95</v>
       </c>
@@ -3383,8 +3503,11 @@
       <c r="I72" s="23">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J72" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>95</v>
       </c>
@@ -3413,7 +3536,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>118</v>
       </c>
@@ -3497,16 +3620,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -3521,10 +3644,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
@@ -3539,10 +3662,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
@@ -3557,9 +3680,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
@@ -3577,10 +3700,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="67" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -3595,10 +3718,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
@@ -3613,9 +3736,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
@@ -3633,9 +3756,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="67" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -3651,9 +3774,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
@@ -3667,9 +3790,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
@@ -3683,9 +3806,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
@@ -3703,9 +3826,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="16" t="s">
         <v>28</v>
       </c>
@@ -3721,9 +3844,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="16" t="s">
         <v>30</v>
       </c>
@@ -3739,9 +3862,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="21" t="s">
         <v>32</v>
       </c>
@@ -3759,8 +3882,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
@@ -3777,9 +3900,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -3799,9 +3922,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="18" t="s">
         <v>38</v>
       </c>
@@ -3819,8 +3942,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="16" t="s">
         <v>40</v>
       </c>
@@ -3841,11 +3964,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="73" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -3857,7 +3980,7 @@
       <c r="F20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="79">
         <v>3</v>
       </c>
       <c r="H20" s="11">
@@ -3865,9 +3988,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="16" t="s">
         <v>46</v>
       </c>
@@ -3877,15 +4000,15 @@
       <c r="F21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="79"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="16" t="s">
         <v>48</v>
       </c>
@@ -3895,15 +4018,15 @@
       <c r="F22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="79"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
@@ -3913,15 +4036,15 @@
       <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="79"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="16" t="s">
         <v>51</v>
       </c>
@@ -3931,15 +4054,15 @@
       <c r="F24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="79"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="16" t="s">
         <v>53</v>
       </c>
@@ -3949,14 +4072,14 @@
       <c r="F25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
@@ -3977,8 +4100,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -4001,9 +4124,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="67" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="68" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -4018,9 +4141,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="16" t="s">
         <v>63</v>
       </c>
@@ -4035,9 +4158,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -4055,11 +4178,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="73" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="71" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -4079,9 +4202,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="81"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="18" t="s">
         <v>71</v>
       </c>
@@ -4099,8 +4222,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="23" t="s">
         <v>73</v>
       </c>
@@ -4118,8 +4241,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="23" t="s">
         <v>75</v>
       </c>
@@ -4137,11 +4260,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="68" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -4156,9 +4279,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="69"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="16" t="s">
         <v>80</v>
       </c>
@@ -4174,9 +4297,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="67" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="68" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="16" t="s">
@@ -4193,9 +4316,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="69"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="16" t="s">
         <v>84</v>
       </c>
@@ -4210,8 +4333,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="23" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4355,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="23" t="s">
         <v>88</v>
       </c>
@@ -4254,10 +4377,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="63" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="25" t="s">
@@ -4277,9 +4400,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="62" t="s">
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -4296,9 +4419,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="66"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="12" t="s">
         <v>98</v>
       </c>
@@ -4313,9 +4436,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="62" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="12" t="s">
@@ -4332,9 +4455,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="12" t="s">
         <v>100</v>
       </c>
@@ -4349,9 +4472,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="82"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="28" t="s">
         <v>102</v>
       </c>
@@ -4366,8 +4489,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="27" t="s">
         <v>103</v>
       </c>
@@ -4385,8 +4508,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="10" t="s">
         <v>105</v>
       </c>
@@ -4407,8 +4530,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="11" t="s">
         <v>107</v>
       </c>
@@ -4426,8 +4549,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
-      <c r="B50" s="62" t="s">
+      <c r="A50" s="64"/>
+      <c r="B50" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -4447,8 +4570,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="11" t="s">
         <v>86</v>
       </c>
@@ -4469,8 +4592,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="11" t="s">
         <v>88</v>
       </c>
@@ -4491,10 +4614,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="68" t="s">
         <v>91</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -4514,8 +4637,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="23" t="s">
         <v>111</v>
       </c>
@@ -4533,8 +4656,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="23" t="s">
         <v>113</v>
       </c>
@@ -4553,8 +4676,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="23" t="s">
         <v>105</v>
       </c>
@@ -4570,8 +4693,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="23" t="s">
         <v>107</v>
       </c>
@@ -4587,8 +4710,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="68"/>
-      <c r="B58" s="67" t="s">
+      <c r="A58" s="69"/>
+      <c r="B58" s="68" t="s">
         <v>77</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -4608,8 +4731,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="23" t="s">
         <v>86</v>
       </c>
@@ -4630,8 +4753,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="23" t="s">
         <v>88</v>
       </c>
@@ -4652,13 +4775,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="71" t="s">
         <v>120</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -4678,9 +4801,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="63"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="12" t="s">
         <v>123</v>
       </c>
@@ -4695,8 +4818,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="63"/>
-      <c r="B63" s="76" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="77" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -4713,8 +4836,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="11" t="s">
         <v>128</v>
       </c>
@@ -4729,9 +4852,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="62" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="63" t="s">
         <v>130</v>
       </c>
       <c r="D65" s="12" t="s">
@@ -4748,9 +4871,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="63"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="12" t="s">
         <v>132</v>
       </c>
@@ -4762,9 +4885,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="63"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="12" t="s">
         <v>133</v>
       </c>
@@ -4776,11 +4899,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
-      <c r="B68" s="62" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="63" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="12" t="s">
@@ -4794,9 +4917,9 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="12" t="s">
         <v>36</v>
       </c>
@@ -4814,9 +4937,9 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="12" t="s">
         <v>138</v>
       </c>
@@ -4831,9 +4954,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="63"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="12" t="s">
         <v>140</v>
       </c>
@@ -4848,9 +4971,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="64"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="28" t="s">
         <v>32</v>
       </c>
@@ -4868,9 +4991,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="71"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="29" t="s">
         <v>38</v>
       </c>
@@ -4888,7 +5011,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="11" t="s">
         <v>144</v>
       </c>
